--- a/Data/Output/네이버뉴스들.xlsx
+++ b/Data/Output/네이버뉴스들.xlsx
@@ -18,6 +18,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>CIO Korea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스, AI 에이전트 기반 ‘테스트 클라우드’ 출시··· 소프트웨...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cio.com/article/3952313/%EC%9C%A0%EC%95%84%EC%9D%B4%ED%8C%A8%EC%8A%A4-ai-%EC%97%90%EC%9D%B4%EC%A0%84%ED%8A%B8-%EA%B8%B0%EB%B0%98-%ED%85%8C%EC%8A%A4%ED%8A%B8-%ED%81%B4%EB%9D%BC%EC%9A%B0%EB%93%9C-%EC%B6%9C.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이티데일리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스, '테스트 클라우드' 출시…SW 테스팅 과정 지원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.itdaily.kr/news/articleView.html?idxno=231944</x:t>
+  </x:si>
+  <x:si>
+    <x:t>넥스트데일리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스, AI 에이전트 활용 SW 품질 테스트 클라우드 발표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.nextdaily.co.kr/news/articleView.html?idxno=236702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT조선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스, AI 에이전트로 SW 품질 테스트 '테스트 클라우드' 출시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://it.chosun.com/news/articleView.html?idxno=2023092137622</x:t>
+  </x:si>
+  <x:si>
     <x:t>테크월드</x:t>
   </x:si>
   <x:si>
@@ -27,6 +63,48 @@
     <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=314681</x:t>
   </x:si>
   <x:si>
+    <x:t>데이터넷</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스, '테스트 클라우드' 출시 ··· QA 에이전틱 테스팅 지원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.datanet.co.kr/news/articleView.html?idxno=200947</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITWorld</x:t>
+  </x:si>
+  <x:si>
+    <x:t>“QA에도 AI 에이전트를” 유아이패스, 테스트 클라우드 출시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.itworld.co.kr/article/3952081/qa%EC%97%90%EB%8F%84-ai-%EC%97%90%EC%9D%B4%EC%A0%84%ED%8A%B8%EB%A5%BC-%EC%9C%A0%EC%95%84%EC%9D%B4%ED%8C%A8%EC%8A%A4-%ED%85%8C%EC%8A%A4%ED%8A%B8-%ED%81%B4%EB%9D%BC%EC%9A%B0%EB%93%9C-%EC%B6%9C.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디지털투데이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코어위브 주가, 상장 이틀 만에 10% 급락…AI 열풍도 못 막았다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=559593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비즈한국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[유럽스타트업열전] 사모펀드 '먹튀' 논란, 유럽은 어떨까</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bizhankook.com/bk/article/29296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스, 25일 온라인서 '2025 AI 서밋' 개최</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.nextdaily.co.kr/news/articleView.html?idxno=236360</x:t>
+  </x:si>
+  <x:si>
     <x:t>벤처스퀘어</x:t>
   </x:si>
   <x:si>
@@ -36,13 +114,28 @@
     <x:t>https://www.venturesquare.net/962142</x:t>
   </x:si>
   <x:si>
-    <x:t>넥스트데일리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유아이패스, 25일 온라인서 '2025 AI 서밋' 개최</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.nextdaily.co.kr/news/articleView.html?idxno=236360</x:t>
+    <x:t>유아이패스, '2025 AI 서밋' 개최… "에이전틱 AI 최적화 방안 제시"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://it.chosun.com/news/articleView.html?idxno=2023092136842</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스, '2025 AI 서밋'서 최신 에이전틱 자동화 솔루션 공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.datanet.co.kr/news/articleView.html?idxno=200709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[데일리픽] 美 부채 한도 종료 코앞…에어팟에 실시간 번역 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=557195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스, AI 자동화 솔루션 기업 피크AI 인수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.digitaltoday.co.kr/news/articleView.html?idxno=557058</x:t>
   </x:si>
   <x:si>
     <x:t>토큰포스트</x:t>
@@ -54,9 +147,174 @@
     <x:t>https://www.tokenpost.kr/article-228429</x:t>
   </x:si>
   <x:si>
+    <x:t>생성형 AI로 자동화 실현한다··· ‘지능형 문서 처리(IDP)’ 체크포인...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.cio.com/article/3841926/%EC%83%9D%EC%84%B1%ED%98%95-ai%EB%A1%9C-%EC%9E%90%EB%8F%99%ED%99%94-%EC%8B%A4%ED%98%84%ED%95%9C%EB%8B%A4%C2%B7%C2%B7%C2%B7-%EC%A7%80%EB%8A%A5%ED%98%95-%EB%AC%B8%EC%84%9C-%EC%B2%98%EB%A6%ACid.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인공지능신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스, '에이전트 AI'로 복잡한 업무 프로세스 혁신 가능성 확인.....</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.aitimes.kr/news/articleView.html?idxno=33832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스, '2025 에이전트 AI 보고서' 발표...“보안·통합 그리고 오...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.etnews.com/20250211000181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헬로티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스 “에이전트 AI로 복잡한 업무 프로세스 혁신 가능”</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hellot.net/news/article.html?no=97817</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스 "2025년 에이전트 AI, 업무 미래 혁신할 것"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.datanet.co.kr/news/articleView.html?idxno=198713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스가 바라본 '2025년 인공지능 트렌드는?'... 사람·로봇·AI에이...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.aitimes.kr/news/articleView.html?idxno=33339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025년 AI·자동화 발전 이끌 핵심 트렌드는?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hellot.net/news/article.html?no=96611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025년 AI와 자동화 분야 발전 이끌 핵심 트렌드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=310409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아이패스, 2025년 AI는 “생각에서 행동으로 전환”</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.etnews.com/20241223000141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AP신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구광모式 AI, 색깔 뚜렷해졌다…"업그레이드 속도전 주도"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apnews.kr/news/articleView.html?idxno=3028404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이로운넷</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG, 생성형 AI '엑사원 3.5' 4개월 만에 새 버전 공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.eroun.net/news/articleView.html?idxno=50422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알티케이뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG, 생성형 AI '엑사원' 4개월 만에 새 버전 공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.rightknow.co.kr/news/articleView.html?idxno=30186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비즈트리뷴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.biztribune.co.kr/news/articleView.html?idxno=326643</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CWN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG, 생성형 AI '엑사원 3.5' 공개…"혁신 가속도"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cwn.kr/article/1065586581224504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로이슈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울아산병원, 국내 최초 AI 음성인식 시스템 구축..."의료진·환자 대화...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.lawissue.co.kr/view.php?ud=20250402204846737f4ab64559d_12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헬스경향</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환자에게 집중하세요…대화 요약부터 저장까지 AI가 '알아서' 합니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.k-health.com/news/articleView.html?idxno=79933</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더퍼스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울아산병원, 의료진·환자 대화 요약해 의무기록 자동 저장… 국내 최...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.thefirstmedia.net/news/articleView.html?idxno=167808</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매일안전신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보건복지부, 2025년 보건복지부 산하 공직유관단체 감사인 워크숍 개최</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://idsn.co.kr/news/view/1065597707546393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의사신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[병원계소식] 4월 2일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.doctorstimes.com/news/articleView.html?idxno=231946</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브릿지경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경북도개발공사, 디지털 기반 경영 실현 선언</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.viva100.com/article/20250402501376</x:t>
+  </x:si>
+  <x:si>
     <x:t>에이빙뉴스</x:t>
   </x:si>
   <x:si>
+    <x:t>Antock to unveil 'Hubble Database' and 'Antock MRI' services at Startup M...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://us.aving.net/news/articleView.html?idxno=52170</x:t>
+  </x:si>
+  <x:si>
     <x:t>앤톡, 인도 '스타트업 마하쿰 2025'서 '허블 데이터베이스·Antock MRI' 서비...</x:t>
   </x:si>
   <x:si>
@@ -99,7 +357,13 @@
     <x:t>http://www.fnnews.com/news/202504020942232601</x:t>
   </x:si>
   <x:si>
-    <x:t>인공지능신문</x:t>
+    <x:t>디지틀조선일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울아산병원, 국내 첫 ‘AI 진료 대화 자동 기록 시스템’ 적용…환자...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://digitalchosun.dizzo.com/site/data/html_dir/2025/04/02/2025040280061.html</x:t>
   </x:si>
   <x:si>
     <x:t>"의료진·환자 대화 요약해 의무기록 자동 저장"… 서울아산병원, 국내...</x:t>
@@ -108,15 +372,6 @@
     <x:t>https://www.aitimes.kr/news/articleView.html?idxno=34457</x:t>
   </x:si>
   <x:si>
-    <x:t>디지틀조선일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울아산병원, 국내 첫 ‘AI 진료 대화 자동 기록 시스템’ 적용…환자...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://digitalchosun.dizzo.com/site/data/html_dir/2025/04/02/2025040280061.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>경기메디뉴스</x:t>
   </x:si>
   <x:si>
@@ -126,24 +381,234 @@
     <x:t>http://www.ggmedinews.com/news/articleView.html?idxno=5369</x:t>
   </x:si>
   <x:si>
+    <x:t>연합뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[K-VIBE] 노석준의 메타버스 세상…웹 3.0시대의 메타버스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.yna.co.kr/view/AKR20250402023400371?input=1195m</x:t>
+  </x:si>
+  <x:si>
     <x:t>뉴시스언론사 선정</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.newsis.com/view/NISX20250402_0003123023</x:t>
   </x:si>
   <x:si>
-    <x:t>연합뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[K-VIBE] 노석준의 메타버스 세상…웹 3.0시대의 메타버스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.yna.co.kr/view/AKR20250402023400371?input=1195m</x:t>
+    <x:t>이투데이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의사·환자 대화 자동 요약·저장…서울아산병원, AI 음성인식 시스템 ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.etoday.co.kr/news/view/2458221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤럴드경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[김태열의 생생건강S펜] “의료진·환자 대화 요약 의무기록 자동 저장...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://biz.heraldcorp.com/article/10455929?ref=naver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아시아경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울아산병원, 국내 최초 AI 진료 음성인식 시스템 구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://view.asiae.co.kr/article/2025040209414054034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e의료정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의료진·환자 대화 요약해 자동 저장… 국내 최초 AI 음성인식 시스템 ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.kmedinfo.co.kr/news/articleView.html?idxno=89644</x:t>
+  </x:si>
+  <x:si>
+    <x:t>후생신보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울아산병원, 국내 최초 AI 음성인식 시스템 구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.whosaeng.com/159952</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경상매일신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경북도개발공사, 디지털 기반 경영 실현 선포식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.ksmnews.co.kr/news/view.php?idx=532380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대한경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경상북도개발공사, ‘디지털 전환(DX) 선포식’ 개최</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.dnews.co.kr/uhtml/view.jsp?idxno=202504011058149750567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경북도민일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경상북도개발공사, '디지털 전환(DX) 선포식' 개최</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.hidomin.com/news/articleView.html?idxno=576659</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여성신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기IT새일센터, 3년 연속 여성가족부 우수기관 선정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.womennews.co.kr/news/articleView.html?idxno=260068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴데일리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경북개발공사, 디지털 전환 선포식 개최</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tk.newdaily.co.kr/site/data/html/2025/04/01/2025040100421.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국방일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단순·반복 입력 손 덜 가게…‘업무 자동화’ 판 넓힌다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://kookbang.dema.mil.kr/newsWeb/20250402/6/ATCE_CTGR_0010030000/view.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NSP통신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경북개발공사, ‘디지털 전환(DX) 선포식’ 개최</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.nspna.com/news/?mode=view&amp;newsid=747679</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경북개발공사, '디지털 전환' 선포식…"신기술로 업무혁신 이뤄내"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://view.asiae.co.kr/article/2025040116513500418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI가 테스트코드도 쓴다…젠코더 '커피 모드' 개발 현장 자동화의 한걸...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tokenpost.kr/news/ai/233935</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비지니스코리아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK Group Enters Humanoid Robotics Arena with Acquisition of Yuil Robotics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.businesskorea.co.kr/news/articleView.html?idxno=238981</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오픈AI, 576조 투자 유치로 벤처시장 판도 바꿨다… AI 생태계에 훈풍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tokenpost.kr/news/insights/233894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이뉴스24언론사 선정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"카톡 프사, 너도나도 지브리네"…저작권 괜찮나</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.inews24.com/view/1830218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>챗GPT '지브리풍 이미지' 유행에 재조명된 미야자키 하야오 감독의 과거...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.insight.co.kr/news/497597</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI타임스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오픈AI, '챗GPT'에 나른한 음성 '먼데이' 추가...만우절 장난?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.aitimes.com/news/articleView.html?idxno=169289</x:t>
   </x:si>
   <x:si>
     <x:t>The New York Times</x:t>
   </x:si>
   <x:si>
+    <x:t>What Do You Think of a New ChatGPT Feature That Makes Images in the Style...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.nytimes.com/2025/04/02/learning/what-do-you-think-of-a-new-chatgpt-feature-that-makes-images-in-the-style-of-studio-ghibli.html?partner=naver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[영상] 오픈AI가 쏘아 올린 '지브리 열풍'…당근마켓 주의보까지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.yna.co.kr/view/AKR20250402117400704?input=1195m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국경제TV언론사 선정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트럼프 반대에도 'US스틸 인수'한다는 일본제철...새 복병 등장 [데일리...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.wowtv.co.kr/NewsCenter/News/Read?articleId=A202504020574&amp;t=NN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파이낸스투데이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[윤성임 소셜비즈테크] 누구나 AI영화감독이 될 수 있는 생성형AI 시대,...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.fntoday.co.kr/news/articleView.html?idxno=348601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매일일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[기획] 외국인력 경계 필요…기술유출 우려 커져</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.m-i.kr/news/articleView.html?idxno=1224131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산업일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생성형 AI, 마케팅 산업의 주축으로 부상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://kidd.co.kr/news/241064</x:t>
+  </x:si>
+  <x:si>
     <x:t>Wednesday Briefing</x:t>
   </x:si>
   <x:si>
@@ -186,6 +651,12 @@
     <x:t>https://www.chosun.com/english/industry-en/2025/04/02/XNTZ33FCLJA4BPDFSAT22MFMHQ/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</x:t>
   </x:si>
   <x:si>
+    <x:t>OpenAI, 58조 원 조달 완료에 암호화폐·AI 주가 급등…시장 ‘빅뱅’ 신...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tokenpost.kr/news/ai/233654</x:t>
+  </x:si>
+  <x:si>
     <x:t>세계비즈</x:t>
   </x:si>
   <x:si>
@@ -208,6 +679,72 @@
   </x:si>
   <x:si>
     <x:t>http://www.g-enews.com/ko-kr/news/article/news_all/2025040119245557200c8c1c064d_1/article.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트뱅크, 오픈AI에 57조 원 베팅… 스타트업 사상 최대 투자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tokenpost.kr/news/ai/233601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오픈AI, 기업가치 3,000억 달러 돌파…소프트뱅크 투자 조건은 '영리 전...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tokenpost.kr/news/ai/233517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cutting Off NPR and PBS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.nytimes.com/2025/04/01/briefing/public-broadcasters-republicans-npr-pbs.html?partner=naver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"애플 인텔리전스, 이제 한국어로 소통한다"...8가지의 새로운 언어와 ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.aitimes.kr/news/articleView.html?idxno=34446</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KBS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[Aㅏ핫 AI] 만화도 그림도 단번에 ‘뚝딱’</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.kbs.co.kr/news/pc/view/view.do?ncd=8216019&amp;ref=A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>천지일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[대중문화칼럼] AI 지브리 스타일에 제 2의 강풀은 힘들다?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.newscj.com/news/articleView.html?idxno=3252740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[윤성임 소셜비즈테크] 생성형 AI(Generative AI)의 진화, "텍스트에서 이...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.fntoday.co.kr/news/articleView.html?idxno=348537</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이넷뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>천재교과서 T셀파, 교실을 바꾸는 '에듀테크 수업 도구' 개발···참여형...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.enetnews.co.kr/news/articleView.html?idxno=36401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더드라이브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>“에듀테크로 진화하는 교실” 천재교과서 T셀파 에듀테크 수업 도구 주...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.thedrive.co.kr/news/newsview.php?ncode=1065602687995273</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -608,6 +1145,336 @@
         <x:v>11</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -630,112 +1497,332 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>163</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -760,100 +1847,332 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>242</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Output/네이버뉴스들.xlsx
+++ b/Data/Output/네이버뉴스들.xlsx
@@ -18,6 +18,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>디지털비즈온</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"내장형 AI"… 기업의 어려움 해소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.digitalbizon.com/news/articleView.html?idxno=2339477</x:t>
+  </x:si>
+  <x:si>
     <x:t>CIO Korea</x:t>
   </x:si>
   <x:si>
@@ -252,6 +261,105 @@
     <x:t>https://cwn.kr/article/1065586581224504</x:t>
   </x:si>
   <x:si>
+    <x:t>필드뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OK금융그룹, "디지털 혁신 넘어 AI 기반 금융그룹으로 도약"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.fieldnews.kr/news/articleView.html?idxno=14759</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아시아에이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OK금융, '인공지능 기반 금융그룹' 도약 본격화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.asiaa.co.kr/news/articleView.html?idxno=208219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아시아경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI열공' OK금융, 미래디지털본부 산하 AI팀 신설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://view.asiae.co.kr/article/2025040309244186047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴데일리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사내 'AI DNA' 심는 OK금융 … 미래디지털본부 AI팀 신설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://biz.newdaily.co.kr/site/data/html/2025/04/03/2025040300088.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신아일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI DNA 심는 OK금융, 미래디지털본부 산하 '인공지능 팀' 신설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.shinailbo.co.kr/news/articleView.html?idxno=2031550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인사이트코리아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OK금융, 미래디지털본부 산하 'AI팀' 신설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.insightkorea.co.kr/news/articleView.html?idxno=221638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현대경제신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OK금융, AI 전담팀 출범…디지털 혁신 가속화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.finomy.com/news/articleView.html?idxno=225474</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핀포인트뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OK금융, 미래디지털본부 산하 AI팀 신설… 임직원 참여 TF팀도 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.pinpointnews.co.kr/news/articleView.html?idxno=333632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>딜사이트경제TV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OK금융, 'AI기반 금융그룹' 본격화...AI 전담팀 조직개편 단행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.dealsitetv.com/articles/152962</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이코노뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"배우면서 혁신"…AI 열공하는 OK금융</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.econonews.co.kr/news/articleView.html?idxno=382077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>머니S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI DNA 심는 OK금융, 미래디지털본부 산하 AI팀 신설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moneys.co.kr/article/2025040308321748297</x:t>
+  </x:si>
+  <x:si>
     <x:t>로이슈</x:t>
   </x:si>
   <x:si>
@@ -357,6 +465,12 @@
     <x:t>http://www.fnnews.com/news/202504020942232601</x:t>
   </x:si>
   <x:si>
+    <x:t>"의료진·환자 대화 요약해 의무기록 자동 저장"… 서울아산병원, 국내...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.aitimes.kr/news/articleView.html?idxno=34457</x:t>
+  </x:si>
+  <x:si>
     <x:t>디지틀조선일보</x:t>
   </x:si>
   <x:si>
@@ -366,12 +480,6 @@
     <x:t>http://digitalchosun.dizzo.com/site/data/html_dir/2025/04/02/2025040280061.html</x:t>
   </x:si>
   <x:si>
-    <x:t>"의료진·환자 대화 요약해 의무기록 자동 저장"… 서울아산병원, 국내...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.aitimes.kr/news/articleView.html?idxno=34457</x:t>
-  </x:si>
-  <x:si>
     <x:t>경기메디뉴스</x:t>
   </x:si>
   <x:si>
@@ -381,6 +489,12 @@
     <x:t>http://www.ggmedinews.com/news/articleView.html?idxno=5369</x:t>
   </x:si>
   <x:si>
+    <x:t>뉴시스언론사 선정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.newsis.com/view/NISX20250402_0003123023</x:t>
+  </x:si>
+  <x:si>
     <x:t>연합뉴스</x:t>
   </x:si>
   <x:si>
@@ -390,12 +504,6 @@
     <x:t>https://www.yna.co.kr/view/AKR20250402023400371?input=1195m</x:t>
   </x:si>
   <x:si>
-    <x:t>뉴시스언론사 선정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.newsis.com/view/NISX20250402_0003123023</x:t>
-  </x:si>
-  <x:si>
     <x:t>이투데이</x:t>
   </x:si>
   <x:si>
@@ -414,100 +522,10 @@
     <x:t>https://biz.heraldcorp.com/article/10455929?ref=naver</x:t>
   </x:si>
   <x:si>
-    <x:t>아시아경제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울아산병원, 국내 최초 AI 진료 음성인식 시스템 구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://view.asiae.co.kr/article/2025040209414054034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e의료정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의료진·환자 대화 요약해 자동 저장… 국내 최초 AI 음성인식 시스템 ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.kmedinfo.co.kr/news/articleView.html?idxno=89644</x:t>
-  </x:si>
-  <x:si>
-    <x:t>후생신보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울아산병원, 국내 최초 AI 음성인식 시스템 구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.whosaeng.com/159952</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경상매일신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경북도개발공사, 디지털 기반 경영 실현 선포식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.ksmnews.co.kr/news/view.php?idx=532380</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대한경제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경상북도개발공사, ‘디지털 전환(DX) 선포식’ 개최</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.dnews.co.kr/uhtml/view.jsp?idxno=202504011058149750567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경북도민일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경상북도개발공사, '디지털 전환(DX) 선포식' 개최</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.hidomin.com/news/articleView.html?idxno=576659</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여성신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기IT새일센터, 3년 연속 여성가족부 우수기관 선정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.womennews.co.kr/news/articleView.html?idxno=260068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴데일리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경북개발공사, 디지털 전환 선포식 개최</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://tk.newdaily.co.kr/site/data/html/2025/04/01/2025040100421.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국방일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단순·반복 입력 손 덜 가게…‘업무 자동화’ 판 넓힌다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://kookbang.dema.mil.kr/newsWeb/20250402/6/ATCE_CTGR_0010030000/view.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NSP통신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경북개발공사, ‘디지털 전환(DX) 선포식’ 개최</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.nspna.com/news/?mode=view&amp;newsid=747679</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경북개발공사, '디지털 전환' 선포식…"신기술로 업무혁신 이뤄내"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://view.asiae.co.kr/article/2025040116513500418</x:t>
+    <x:t>센티언트, GPT-4o 능가하는 오픈소스 AI 검색엔진 'ODS' 공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.tokenpost.kr/news/ai/234022</x:t>
   </x:si>
   <x:si>
     <x:t>AI가 테스트코드도 쓴다…젠코더 '커피 모드' 개발 현장 자동화의 한걸...</x:t>
@@ -714,6 +732,12 @@
     <x:t>https://news.kbs.co.kr/news/pc/view/view.do?ncd=8216019&amp;ref=A</x:t>
   </x:si>
   <x:si>
+    <x:t>[윤성임 소셜비즈테크] 생성형 AI(Generative AI)의 진화, "텍스트에서 이...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.fntoday.co.kr/news/articleView.html?idxno=348537</x:t>
+  </x:si>
+  <x:si>
     <x:t>천지일보</x:t>
   </x:si>
   <x:si>
@@ -723,12 +747,6 @@
     <x:t>https://www.newscj.com/news/articleView.html?idxno=3252740</x:t>
   </x:si>
   <x:si>
-    <x:t>[윤성임 소셜비즈테크] 생성형 AI(Generative AI)의 진화, "텍스트에서 이...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.fntoday.co.kr/news/articleView.html?idxno=348537</x:t>
-  </x:si>
-  <x:si>
     <x:t>이넷뉴스</x:t>
   </x:si>
   <x:si>
@@ -736,15 +754,6 @@
   </x:si>
   <x:si>
     <x:t>https://www.enetnews.co.kr/news/articleView.html?idxno=36401</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더드라이브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>“에듀테크로 진화하는 교실” 천재교과서 T셀파 에듀테크 수업 도구 주...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.thedrive.co.kr/news/newsview.php?ncode=1065602687995273</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -790,13 +799,20 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1202,18 +1218,18 @@
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>30</x:v>
@@ -1224,51 +1240,51 @@
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>41</x:v>
@@ -1279,18 +1295,18 @@
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>46</x:v>
@@ -1323,62 +1339,62 @@
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>65</x:v>
@@ -1414,18 +1430,18 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>77</x:v>
@@ -1433,46 +1449,46 @@
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1497,332 +1513,332 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1847,332 +1863,332 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
